--- a/Assets/06.Table/TestSumi.xlsx
+++ b/Assets/06.Table/TestSumi.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1665628B-E627-4587-9E0B-013589C7BA14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF042754-1A0A-4FE8-AD5A-B16DAFE69B3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -938,11 +938,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G23" sqref="G23"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1549,6 +1549,46 @@
       <c r="E30" s="24">
         <f>VLOOKUP(B30,Balnace!F:K,6,FALSE)</f>
         <v>1.6700000000000002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="22">
+        <v>29</v>
+      </c>
+      <c r="B31" s="23">
+        <f>Balnace!F38</f>
+        <v>1.5000000000000002E+130</v>
+      </c>
+      <c r="C31" s="24" t="str">
+        <f>VLOOKUP(B31,Balnace!F:G,2,FALSE)</f>
+        <v>150위</v>
+      </c>
+      <c r="D31" s="25">
+        <v>43</v>
+      </c>
+      <c r="E31" s="24">
+        <f>VLOOKUP(B31,Balnace!F:K,6,FALSE)</f>
+        <v>1.6900000000000002</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="22">
+        <v>30</v>
+      </c>
+      <c r="B32" s="23">
+        <f>Balnace!F39</f>
+        <v>1.7000000000000001E+131</v>
+      </c>
+      <c r="C32" s="24" t="str">
+        <f>VLOOKUP(B32,Balnace!F:G,2,FALSE)</f>
+        <v>1700위</v>
+      </c>
+      <c r="D32" s="25">
+        <v>43</v>
+      </c>
+      <c r="E32" s="24">
+        <f>VLOOKUP(B32,Balnace!F:K,6,FALSE)</f>
+        <v>1.7400000000000002</v>
       </c>
     </row>
   </sheetData>
